--- a/config_file/tixplus_ac_second.xlsx
+++ b/config_file/tixplus_ac_second.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/USER/Desktop/new_Fyp/lawson_auto/config_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7748D449-5FC3-F640-98FE-C367216C34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1208C1-FA8F-7C4C-86BF-4669A1ADD491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{BF0064B6-BD3E-834E-B1EC-9949E35C9C53}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>EMAIL</t>
   </si>
@@ -487,7 +487,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,6 +536,44 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>9011111111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>1995</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>23</v>
+      </c>
+    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
@@ -592,6 +630,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{758CC5B5-A3A3-7247-AABB-21B5046172FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -602,7 +643,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/config_file/tixplus_ac_second.xlsx
+++ b/config_file/tixplus_ac_second.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/USER/Desktop/new_Fyp/lawson_auto/config_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1208C1-FA8F-7C4C-86BF-4669A1ADD491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64EA838-A39B-4546-A7C6-D1D0E71AC2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{BF0064B6-BD3E-834E-B1EC-9949E35C9C53}"/>
+    <workbookView xWindow="9000" yWindow="1840" windowWidth="29400" windowHeight="18380" xr2:uid="{BF0064B6-BD3E-834E-B1EC-9949E35C9C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{758CC5B5-A3A3-7247-AABB-21B5046172FA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5D0898B3-DDB6-AB47-8FF2-66D11E14916E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
